--- a/doc/workplan.xlsx
+++ b/doc/workplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpelda\Documents\GitHub\memphis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpelda\Documents\GitHub\memphis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,9 +62,6 @@
     <t>Upload Gis-Data Niedersachsen  (WGS 84, name: gis_road, gis_buildings, …, geopandas.GeoDataFrame()). Lukas about relevant data.</t>
   </si>
   <si>
-    <t>Upload Census  (EPSG 3035 -&gt; WGS 84, name: census, geopandas.GeoDataFrame()).</t>
-  </si>
-  <si>
     <t>Transform Gis-Data into graph (WGS 84, name: G, networkx.Graph()).</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Allocate inhabitants of census 100 x 100 sqm with git_buildings['iPsqm']. Save it in  gis_buildings[“inhabitants“].</t>
+  </si>
+  <si>
+    <t>Upload Census  (name: census, geopandas.GeoDataFrame()).</t>
   </si>
 </sst>
 </file>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -458,9 +458,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6">
         <v>43153</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6">
         <v>43160</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6">
         <v>43170</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="6">
         <v>43170</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="6">
         <v>43174</v>
@@ -550,12 +550,12 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="6">
         <v>43179</v>

--- a/doc/workplan.xlsx
+++ b/doc/workplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Arbeitsschritt</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Conditioning</t>
   </si>
   <si>
-    <t>Calculate centroid of are size of buildings.</t>
-  </si>
-  <si>
     <t>Transform Census from EPSG 3035:into EPSG:4326 on demand.</t>
   </si>
   <si>
@@ -56,31 +53,31 @@
     <t>Allocation</t>
   </si>
   <si>
-    <t>Save them as gis_buildings[“centroid“] (Point(x,y) and  gis_buildings[“iPsqm“] (float).</t>
-  </si>
-  <si>
     <t>Upload Gis-Data Niedersachsen  (WGS 84, name: gis_road, gis_buildings, …, geopandas.GeoDataFrame()). Lukas about relevant data.</t>
   </si>
   <si>
     <t>Transform Gis-Data into graph (WGS 84, name: G, networkx.Graph()).</t>
   </si>
   <si>
-    <t>Multiply gis_buildings[“inhabitants“] with key figure „wastewater flow per sqm“. Save result into gis_buildings[“sewage_flow“].</t>
-  </si>
-  <si>
-    <t>Allocate centroids to nearest edge and cumulate their sewage flows. Save result into nx.set_node_attribute(G, “sewage_flows“)</t>
-  </si>
-  <si>
     <t>Calculation</t>
   </si>
   <si>
-    <t>Cumulate sewage flows of edges along best way to wastewater treatment plant.</t>
-  </si>
-  <si>
-    <t>Allocate inhabitants of census 100 x 100 sqm with git_buildings['iPsqm']. Save it in  gis_buildings[“inhabitants“].</t>
-  </si>
-  <si>
     <t>Upload Census  (name: census, geopandas.GeoDataFrame()).</t>
+  </si>
+  <si>
+    <t>Calculate centroid of area of census raster.</t>
+  </si>
+  <si>
+    <t>Calculate for each raster centroid the waster water flow. Inhabitans * waster water flows + special buildings?</t>
+  </si>
+  <si>
+    <t>Allocate centroids to nearest node and cumulate their sewage flows along shortest path. Save result into nx.set_node_attribute(G, “sewage_flows“)</t>
+  </si>
+  <si>
+    <t>Sort all nodes by longest way from sewage plant. This will be needed for cummulating waster water flows along the paths.</t>
+  </si>
+  <si>
+    <t>Cumulate sewage flows of nodes along best way to wastewater treatment plant.</t>
   </si>
 </sst>
 </file>
@@ -425,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -460,7 +457,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6">
         <v>43153</v>
@@ -468,7 +465,7 @@
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43153</v>
@@ -481,7 +478,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43157</v>
@@ -492,72 +489,61 @@
         <v>10</v>
       </c>
       <c r="C10" s="6">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
         <v>43157</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6">
-        <v>43160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6">
-        <v>43157</v>
+        <v>43169</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6">
-        <v>43169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43170</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6">
-        <v>43170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6">
-        <v>43170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="6">
-        <v>43174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="C22" s="6">
         <v>43179</v>
       </c>
     </row>
